--- a/data/trans_orig/CoPsoQ_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ_R2-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>161839</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>143557</v>
+        <v>145667</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>177165</v>
+        <v>177308</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5902338605863796</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5235586222715195</v>
+        <v>0.5312549601780517</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6461283499423949</v>
+        <v>0.6466479761298559</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>116</v>
@@ -764,19 +764,19 @@
         <v>127086</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>112094</v>
+        <v>111867</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>142217</v>
+        <v>141854</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5822374998072583</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5135547240537797</v>
+        <v>0.5125138806211721</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6515599628264578</v>
+        <v>0.6498993281674763</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>270</v>
@@ -785,19 +785,19 @@
         <v>288925</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>267617</v>
+        <v>265564</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>312529</v>
+        <v>311657</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5866897066213076</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5434226869919089</v>
+        <v>0.5392540740476492</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6346198658264567</v>
+        <v>0.6328487890181589</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>112356</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97030</v>
+        <v>96887</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130638</v>
+        <v>128528</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4097661394136204</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3538716500576053</v>
+        <v>0.3533520238701441</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4764413777284806</v>
+        <v>0.4687450398219482</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>84</v>
@@ -835,19 +835,19 @@
         <v>91185</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>76054</v>
+        <v>76417</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>106177</v>
+        <v>106404</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4177625001927418</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3484400371735424</v>
+        <v>0.3501006718325238</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4864452759462207</v>
+        <v>0.4874861193788279</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>186</v>
@@ -856,19 +856,19 @@
         <v>203541</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>179937</v>
+        <v>180809</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>224849</v>
+        <v>226902</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4133102933786924</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3653801341735433</v>
+        <v>0.3671512109818407</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4565773130080911</v>
+        <v>0.4607459259523504</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>218446</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>198146</v>
+        <v>198704</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>236842</v>
+        <v>238035</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5838246908972797</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5295703397145104</v>
+        <v>0.531060969616446</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6329899405555918</v>
+        <v>0.6361770971392424</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -981,19 +981,19 @@
         <v>138907</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>121702</v>
+        <v>123210</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>156960</v>
+        <v>156621</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.551128839425563</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.48286686420585</v>
+        <v>0.4888509881472333</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6227599085795885</v>
+        <v>0.6214143320804785</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>336</v>
@@ -1002,19 +1002,19 @@
         <v>357353</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>328734</v>
+        <v>331323</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>382120</v>
+        <v>381426</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5706649677410518</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5249635349742547</v>
+        <v>0.5290973559961371</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6102161065726095</v>
+        <v>0.6091086078423544</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>155718</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>137322</v>
+        <v>136129</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>176018</v>
+        <v>175460</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4161753091027203</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3670100594444083</v>
+        <v>0.3638229028607575</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4704296602854897</v>
+        <v>0.4689390303835539</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>103</v>
@@ -1052,19 +1052,19 @@
         <v>113133</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>95080</v>
+        <v>95419</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>130338</v>
+        <v>128830</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.448871160574437</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3772400914204114</v>
+        <v>0.3785856679195215</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.51713313579415</v>
+        <v>0.5111490118527668</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>255</v>
@@ -1073,19 +1073,19 @@
         <v>268851</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>244084</v>
+        <v>244778</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>297470</v>
+        <v>294881</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4293350322589481</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3897838934273906</v>
+        <v>0.3908913921576457</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4750364650257454</v>
+        <v>0.4709026440038628</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>269737</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>247212</v>
+        <v>248286</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>290737</v>
+        <v>291324</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.600060177568365</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5499497822221936</v>
+        <v>0.5523388824720865</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6467773418961138</v>
+        <v>0.6480827176088941</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>137</v>
@@ -1198,19 +1198,19 @@
         <v>144811</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>126365</v>
+        <v>128746</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>161708</v>
+        <v>161165</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5259368127048141</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4589403418619848</v>
+        <v>0.4675893712560484</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5873029158809502</v>
+        <v>0.5853297390374467</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>395</v>
@@ -1219,19 +1219,19 @@
         <v>414549</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>386578</v>
+        <v>385153</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>440609</v>
+        <v>440610</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5719040859508309</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5333167948577886</v>
+        <v>0.5313505018103121</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6078558752990616</v>
+        <v>0.6078582375120388</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>179780</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>158780</v>
+        <v>158193</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>202305</v>
+        <v>201231</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.399939822431635</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3532226581038863</v>
+        <v>0.3519172823911059</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4500502177778063</v>
+        <v>0.4476611175279134</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>123</v>
@@ -1269,19 +1269,19 @@
         <v>130529</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>113632</v>
+        <v>114175</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>148975</v>
+        <v>146594</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.474063187295186</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.41269708411905</v>
+        <v>0.4146702609625531</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5410596581380154</v>
+        <v>0.5324106287439516</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>290</v>
@@ -1290,19 +1290,19 @@
         <v>310308</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>284248</v>
+        <v>284247</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>338279</v>
+        <v>339704</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4280959140491692</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3921441247009385</v>
+        <v>0.3921417624879612</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4666832051422113</v>
+        <v>0.468649498189688</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>158649</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>141560</v>
+        <v>141182</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>176887</v>
+        <v>176537</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.551434601759365</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4920354148062015</v>
+        <v>0.4907230703592865</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6148261466533339</v>
+        <v>0.6136088271950483</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>82</v>
@@ -1415,19 +1415,19 @@
         <v>90321</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75679</v>
+        <v>76321</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104557</v>
+        <v>105064</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5064560716252039</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4243520348939799</v>
+        <v>0.4279529910293175</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5862806381393768</v>
+        <v>0.5891211697126427</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>229</v>
@@ -1436,19 +1436,19 @@
         <v>248971</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>225149</v>
+        <v>225938</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>271596</v>
+        <v>273201</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5342227360662746</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4831067952038086</v>
+        <v>0.4848007373646382</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5827694560155777</v>
+        <v>0.5862132893762778</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>129054</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110816</v>
+        <v>111166</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146143</v>
+        <v>146521</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.448565398240635</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3851738533466661</v>
+        <v>0.3863911728049518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5079645851937986</v>
+        <v>0.5092769296407137</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>79</v>
@@ -1486,19 +1486,19 @@
         <v>88019</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>73783</v>
+        <v>73276</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>102661</v>
+        <v>102019</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.493543928374796</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4137193618606233</v>
+        <v>0.4108788302873572</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5756479651060201</v>
+        <v>0.5720470089706824</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>193</v>
@@ -1507,19 +1507,19 @@
         <v>217073</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>194448</v>
+        <v>192843</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>240895</v>
+        <v>240106</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4657772639337254</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4172305439844222</v>
+        <v>0.4137867106237221</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5168932047961914</v>
+        <v>0.5151992626353619</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>808672</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>771325</v>
+        <v>769081</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>849407</v>
+        <v>846100</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5836346947149419</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.556680974943164</v>
+        <v>0.5550609879770396</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6130342564783781</v>
+        <v>0.6106473861902959</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>463</v>
@@ -1632,19 +1632,19 @@
         <v>501125</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>467794</v>
+        <v>467919</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>530780</v>
+        <v>530621</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.542348245462789</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5062749526936497</v>
+        <v>0.5064098242876337</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5744427376751577</v>
+        <v>0.574270626765213</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1230</v>
@@ -1653,19 +1653,19 @@
         <v>1309797</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1259521</v>
+        <v>1262796</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1353999</v>
+        <v>1358309</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5671171901130058</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5453483134890535</v>
+        <v>0.5467666326652948</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.586255810299666</v>
+        <v>0.5881217781328073</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>576907</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>536172</v>
+        <v>539479</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>614254</v>
+        <v>616498</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4163653052850581</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3869657435216218</v>
+        <v>0.389352613809704</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4433190250568358</v>
+        <v>0.4449390120229603</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>389</v>
@@ -1703,19 +1703,19 @@
         <v>422867</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>393212</v>
+        <v>393371</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>456198</v>
+        <v>456073</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.457651754537211</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4255572623248422</v>
+        <v>0.425729373234787</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4937250473063504</v>
+        <v>0.4935901757123662</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>924</v>
@@ -1724,19 +1724,19 @@
         <v>999774</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>955572</v>
+        <v>951262</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1050050</v>
+        <v>1046775</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4328828098869942</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4137441897003341</v>
+        <v>0.4118782218671925</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4546516865109464</v>
+        <v>0.4532333673347052</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>170121</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>151926</v>
+        <v>152323</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>187350</v>
+        <v>187882</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5794742506560425</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5174976457120024</v>
+        <v>0.5188504498553379</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6381592061001703</v>
+        <v>0.6399725138602537</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>150</v>
@@ -2089,19 +2089,19 @@
         <v>155238</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137522</v>
+        <v>136837</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>171199</v>
+        <v>171690</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5599598887896792</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4960546968103746</v>
+        <v>0.4935864492800899</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6175322122272449</v>
+        <v>0.6193039836041992</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>307</v>
@@ -2110,19 +2110,19 @@
         <v>325359</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>300919</v>
+        <v>298666</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>348824</v>
+        <v>349240</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5699965038265744</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5271796063142082</v>
+        <v>0.523232933642154</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6111043562233947</v>
+        <v>0.6118329648439734</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>123457</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>106228</v>
+        <v>105696</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>141652</v>
+        <v>141255</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4205257493439574</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3618407938998298</v>
+        <v>0.3600274861397465</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.482502354287998</v>
+        <v>0.4811495501446622</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>120</v>
@@ -2160,19 +2160,19 @@
         <v>121993</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>106032</v>
+        <v>105541</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>139709</v>
+        <v>140394</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4400401112103208</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3824677877727552</v>
+        <v>0.3806960163958007</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5039453031896254</v>
+        <v>0.50641355071991</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>232</v>
@@ -2181,19 +2181,19 @@
         <v>245450</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>221985</v>
+        <v>221569</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>269890</v>
+        <v>272143</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4300034961734256</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3888956437766052</v>
+        <v>0.3881670351560265</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4728203936857918</v>
+        <v>0.476767066357846</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>234898</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>214223</v>
+        <v>215633</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>252840</v>
+        <v>253983</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6015718763967389</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5486237257044161</v>
+        <v>0.5522330237480667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6475206561549943</v>
+        <v>0.6504484137482816</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -2306,19 +2306,19 @@
         <v>146455</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>130211</v>
+        <v>127590</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>163347</v>
+        <v>161069</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5423187507657135</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.482168766927249</v>
+        <v>0.4724625049554939</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6048684549583166</v>
+        <v>0.596433632115475</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>365</v>
@@ -2327,19 +2327,19 @@
         <v>381353</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>356972</v>
+        <v>356491</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>407268</v>
+        <v>407391</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5773465748925878</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5404344458084793</v>
+        <v>0.5397068203368798</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6165804940834079</v>
+        <v>0.6167658991929937</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>155576</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>137634</v>
+        <v>136491</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>176251</v>
+        <v>174841</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3984281236032611</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3524793438450056</v>
+        <v>0.3495515862517184</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4513762742955841</v>
+        <v>0.4477669762519333</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>120</v>
@@ -2377,19 +2377,19 @@
         <v>123598</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>106706</v>
+        <v>108984</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>139842</v>
+        <v>142463</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4576812492342865</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3951315450416833</v>
+        <v>0.403566367884525</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5178312330727509</v>
+        <v>0.527537495044506</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>269</v>
@@ -2398,19 +2398,19 @@
         <v>279174</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>253259</v>
+        <v>253136</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>303555</v>
+        <v>304036</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4226534251074122</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3834195059165922</v>
+        <v>0.3832341008070063</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4595655541915207</v>
+        <v>0.4602931796631202</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>244475</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>223930</v>
+        <v>220354</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>266256</v>
+        <v>265632</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5359089944016341</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4908712911535744</v>
+        <v>0.4830340554761119</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5836549433281087</v>
+        <v>0.5822860296351066</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>181</v>
@@ -2523,19 +2523,19 @@
         <v>180396</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>164934</v>
+        <v>163101</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>195957</v>
+        <v>196185</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6206955968748525</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5674956235186756</v>
+        <v>0.5611896160075887</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6742387550533219</v>
+        <v>0.675021270908398</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>412</v>
@@ -2544,19 +2544,19 @@
         <v>424872</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>397374</v>
+        <v>397341</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>452076</v>
+        <v>453880</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.568904693785113</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5320858562686934</v>
+        <v>0.5320411550095788</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6053313971778858</v>
+        <v>0.6077470220834873</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>211713</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>189932</v>
+        <v>190556</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>232258</v>
+        <v>235834</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4640910055983659</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4163450566718913</v>
+        <v>0.4177139703648934</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5091287088464257</v>
+        <v>0.5169659445238881</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>110</v>
@@ -2594,19 +2594,19 @@
         <v>110239</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>94678</v>
+        <v>94450</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125701</v>
+        <v>127534</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3793044031251475</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3257612449466781</v>
+        <v>0.3249787290916015</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4325043764813244</v>
+        <v>0.4388103839924113</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>306</v>
@@ -2615,19 +2615,19 @@
         <v>321952</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>294748</v>
+        <v>292944</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>349450</v>
+        <v>349483</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.431095306214887</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3946686028221144</v>
+        <v>0.3922529779165128</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4679141437313067</v>
+        <v>0.4679588449904212</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>127489</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>109302</v>
+        <v>111004</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>142971</v>
+        <v>145958</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4633448924256217</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3972459266284603</v>
+        <v>0.4034330909455504</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5196138046317708</v>
+        <v>0.5304683824160525</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>82</v>
@@ -2740,19 +2740,19 @@
         <v>87165</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72895</v>
+        <v>72602</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101611</v>
+        <v>102148</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4491606733299904</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3756253272882161</v>
+        <v>0.374114792362146</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5235988568033675</v>
+        <v>0.5263668493003497</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>198</v>
@@ -2761,19 +2761,19 @@
         <v>214654</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>193026</v>
+        <v>193339</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>238592</v>
+        <v>237018</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4574783963451333</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4113831132810508</v>
+        <v>0.4120497485478686</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5084958963289561</v>
+        <v>0.5051397835506853</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>147660</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>132178</v>
+        <v>129191</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>165847</v>
+        <v>164145</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5366551075743783</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4803861953682292</v>
+        <v>0.4695316175839474</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6027540733715397</v>
+        <v>0.5965669090544495</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>102</v>
@@ -2811,19 +2811,19 @@
         <v>106898</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>92452</v>
+        <v>91915</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>121168</v>
+        <v>121461</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5508393266700096</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4764011431966328</v>
+        <v>0.4736331506996503</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6243746727117842</v>
+        <v>0.625885207637854</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>235</v>
@@ -2832,19 +2832,19 @@
         <v>254558</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>230620</v>
+        <v>232194</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>276186</v>
+        <v>275873</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5425216036548667</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.491504103671044</v>
+        <v>0.4948602164493146</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5886168867189493</v>
+        <v>0.5879502514521313</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>776984</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>738051</v>
+        <v>739746</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>819784</v>
+        <v>815837</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.54895381002552</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5214468667735842</v>
+        <v>0.5226445494930891</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5791929021053798</v>
+        <v>0.5764047029543642</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>556</v>
@@ -2957,19 +2957,19 @@
         <v>569254</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>535289</v>
+        <v>538748</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>601307</v>
+        <v>601143</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5516127117179139</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5187002024252619</v>
+        <v>0.5220517387985596</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5826716513363942</v>
+        <v>0.5825129860431842</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1282</v>
@@ -2978,19 +2978,19 @@
         <v>1346238</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1297747</v>
+        <v>1292647</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1397416</v>
+        <v>1396134</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5500749873388645</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5302612943408329</v>
+        <v>0.5281775044589333</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5709862575788968</v>
+        <v>0.5704625987157159</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>638406</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>595606</v>
+        <v>599553</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>677339</v>
+        <v>675644</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.45104618997448</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4208070978946202</v>
+        <v>0.4235952970456358</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4785531332264158</v>
+        <v>0.4773554505069108</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>452</v>
@@ -3028,19 +3028,19 @@
         <v>462728</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>430675</v>
+        <v>430839</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>496693</v>
+        <v>493234</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4483872882820861</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4173283486636059</v>
+        <v>0.4174870139568154</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.481299797574738</v>
+        <v>0.4779482612014401</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1042</v>
@@ -3049,19 +3049,19 @@
         <v>1101134</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1049956</v>
+        <v>1051238</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1149625</v>
+        <v>1154725</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4499250126611354</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4290137424211033</v>
+        <v>0.4295374012842841</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4697387056591671</v>
+        <v>0.4718224955410666</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>19322</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10869</v>
+        <v>11366</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26691</v>
+        <v>27318</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5254758709494709</v>
+        <v>0.5254758709494708</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2955917678761443</v>
+        <v>0.3091054282050998</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7258997965020584</v>
+        <v>0.7429472792315315</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -3414,19 +3414,19 @@
         <v>21635</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15277</v>
+        <v>15911</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27002</v>
+        <v>27866</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.558424379872436</v>
+        <v>0.5584243798724359</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3943085185198518</v>
+        <v>0.4106924550952293</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6969522205368293</v>
+        <v>0.7192444498740012</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -3435,19 +3435,19 @@
         <v>40957</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30621</v>
+        <v>30461</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50223</v>
+        <v>49852</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5423805288824435</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4055016134879528</v>
+        <v>0.4033919638693844</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6650873635830915</v>
+        <v>0.6601766485295484</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>17448</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10079</v>
+        <v>9452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25901</v>
+        <v>25404</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4745241290505292</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2741002034979415</v>
+        <v>0.2570527207684684</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7044082321238558</v>
+        <v>0.6908945717949</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -3485,19 +3485,19 @@
         <v>17108</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11741</v>
+        <v>10877</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23466</v>
+        <v>22832</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4415756201275641</v>
+        <v>0.441575620127564</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3030477794631709</v>
+        <v>0.2807555501259989</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6056914814801473</v>
+        <v>0.589307544904771</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -3506,19 +3506,19 @@
         <v>34556</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25290</v>
+        <v>25661</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44892</v>
+        <v>45052</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4576194711175564</v>
+        <v>0.4576194711175565</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3349126364169085</v>
+        <v>0.3398233514704517</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5944983865120472</v>
+        <v>0.5966080361306155</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>59104</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46066</v>
+        <v>45597</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71182</v>
+        <v>70588</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5058429301526673</v>
+        <v>0.5058429301526672</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3942585705300621</v>
+        <v>0.3902420685080162</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6092174560275375</v>
+        <v>0.6041340137755975</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -3631,19 +3631,19 @@
         <v>55684</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47194</v>
+        <v>46937</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63972</v>
+        <v>64357</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5883646460687365</v>
+        <v>0.5883646460687364</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4986530575621194</v>
+        <v>0.495945463737372</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.675937296505137</v>
+        <v>0.6800080306479636</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -3652,19 +3652,19 @@
         <v>114787</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>99266</v>
+        <v>99885</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>129944</v>
+        <v>131486</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5427725189014034</v>
+        <v>0.5427725189014033</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.469380763985329</v>
+        <v>0.4723067785304218</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6144440500274835</v>
+        <v>0.6217322593022975</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>57738</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45660</v>
+        <v>46254</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>70776</v>
+        <v>71245</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4941570698473328</v>
+        <v>0.4941570698473327</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3907825439724625</v>
+        <v>0.3958659862244026</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6057414294699379</v>
+        <v>0.6097579314919839</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>47</v>
@@ -3702,19 +3702,19 @@
         <v>38958</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30670</v>
+        <v>30285</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47448</v>
+        <v>47705</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4116353539312637</v>
+        <v>0.4116353539312635</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.324062703494863</v>
+        <v>0.3199919693520365</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5013469424378807</v>
+        <v>0.5040545362626282</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>91</v>
@@ -3723,19 +3723,19 @@
         <v>96696</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>81539</v>
+        <v>79997</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>112217</v>
+        <v>111598</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4572274810985966</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3855559499725165</v>
+        <v>0.3782677406977025</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5306192360146708</v>
+        <v>0.5276932214695782</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>48871</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37752</v>
+        <v>36770</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61012</v>
+        <v>61552</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.416543170926249</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.321775967983192</v>
+        <v>0.313402152190666</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5200279885084249</v>
+        <v>0.5246250558986226</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -3848,19 +3848,19 @@
         <v>58062</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48823</v>
+        <v>48820</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69007</v>
+        <v>68642</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4842093259095247</v>
+        <v>0.4842093259095246</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4071632196572275</v>
+        <v>0.4071317079019289</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5754839574232292</v>
+        <v>0.5724404430089246</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>115</v>
@@ -3869,19 +3869,19 @@
         <v>106933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>91032</v>
+        <v>91174</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123859</v>
+        <v>123905</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4507450972581009</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3837187715017235</v>
+        <v>0.3843166415676051</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5220922354185831</v>
+        <v>0.5222850559182693</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>68454</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56313</v>
+        <v>55773</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>79573</v>
+        <v>80555</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.583456829073751</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4799720114915751</v>
+        <v>0.4753749441013772</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6782240320168078</v>
+        <v>0.6865978478093339</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>83</v>
@@ -3919,19 +3919,19 @@
         <v>61849</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50904</v>
+        <v>51269</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>71088</v>
+        <v>71091</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5157906740904754</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4245160425767708</v>
+        <v>0.4275595569910755</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5928367803427727</v>
+        <v>0.5928682920980717</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>144</v>
@@ -3940,19 +3940,19 @@
         <v>130303</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>113377</v>
+        <v>113331</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>146204</v>
+        <v>146062</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.549254902741899</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4779077645814169</v>
+        <v>0.4777149440817307</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6162812284982765</v>
+        <v>0.6156833584323947</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>60373</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47512</v>
+        <v>46276</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77615</v>
+        <v>77513</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3010134534696304</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2368910175688199</v>
+        <v>0.2307283380895418</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3869828881018728</v>
+        <v>0.3864755688815143</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -4065,19 +4065,19 @@
         <v>40917</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31547</v>
+        <v>31823</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50861</v>
+        <v>51045</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3188668376458099</v>
+        <v>0.3188668376458098</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2458474612190147</v>
+        <v>0.2479980302062406</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3963574469187517</v>
+        <v>0.3977927123115328</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>102</v>
@@ -4086,19 +4086,19 @@
         <v>101290</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83752</v>
+        <v>83828</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>119865</v>
+        <v>119860</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3079792772018626</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2546544276753622</v>
+        <v>0.254885695005196</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3644583099673339</v>
+        <v>0.3644433378606045</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>140192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>122950</v>
+        <v>123052</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>153053</v>
+        <v>154289</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6989865465303696</v>
+        <v>0.6989865465303694</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.613017111898127</v>
+        <v>0.6135244311184855</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7631089824311796</v>
+        <v>0.7692716619104583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>118</v>
@@ -4136,19 +4136,19 @@
         <v>87404</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>77460</v>
+        <v>77276</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>96774</v>
+        <v>96498</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6811331623541902</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6036425530812484</v>
+        <v>0.6022072876884673</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7541525387809853</v>
+        <v>0.7520019697937594</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>235</v>
@@ -4157,19 +4157,19 @@
         <v>227596</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>209021</v>
+        <v>209026</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>245134</v>
+        <v>245058</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6920207227981375</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6355416900326658</v>
+        <v>0.6355566621393954</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7453455723246376</v>
+        <v>0.7451143049948038</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>187669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>164716</v>
+        <v>163406</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>212881</v>
+        <v>212609</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3980240222229611</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.349342928584767</v>
+        <v>0.3465645850014314</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4514953517356007</v>
+        <v>0.4509189416195176</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>224</v>
@@ -4282,19 +4282,19 @@
         <v>176298</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>158834</v>
+        <v>159418</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>193385</v>
+        <v>194354</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4619772473007596</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4162136000208582</v>
+        <v>0.4177425253201936</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5067521725257589</v>
+        <v>0.5092904891420565</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>377</v>
@@ -4303,19 +4303,19 @@
         <v>363967</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>333371</v>
+        <v>333089</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>394144</v>
+        <v>392652</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4266315623599481</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3907675473408239</v>
+        <v>0.3904373303794523</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4620039205293465</v>
+        <v>0.4602546191381057</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>283833</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>258621</v>
+        <v>258893</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>306786</v>
+        <v>308096</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6019759777770389</v>
+        <v>0.6019759777770387</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5485046482643994</v>
+        <v>0.5490810583804825</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.650657071415233</v>
+        <v>0.6534354149985686</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>266</v>
@@ -4353,19 +4353,19 @@
         <v>205319</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188232</v>
+        <v>187263</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>222783</v>
+        <v>222199</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5380227526992405</v>
+        <v>0.5380227526992406</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4932478274742402</v>
+        <v>0.4907095108579437</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5837863999791417</v>
+        <v>0.5822574746798067</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>499</v>
@@ -4374,19 +4374,19 @@
         <v>489151</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>458974</v>
+        <v>460466</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>519747</v>
+        <v>520029</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5733684376400519</v>
+        <v>0.573368437640052</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5379960794706535</v>
+        <v>0.5397453808618943</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6092324526591761</v>
+        <v>0.6095626696205482</v>
       </c>
     </row>
     <row r="18">
